--- a/Docs/Lab3/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab3/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D2ED32-9DBD-48D0-AE92-AE12654734A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7706212F-D6CD-4E80-8311-013B9691471C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -457,9 +457,6 @@
     <t>}</t>
   </si>
   <si>
-    <t>14-11+2=5</t>
-  </si>
-  <si>
     <t>4+1=5</t>
   </si>
   <si>
@@ -557,6 +554,9 @@
   </si>
   <si>
     <t>list</t>
+  </si>
+  <si>
+    <t>13-10+2=5</t>
   </si>
 </sst>
 </file>
@@ -1361,6 +1361,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1373,49 +1379,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,23 +1460,83 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1457,9 +1553,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1507,99 +1600,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2031,12 +2031,12 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
@@ -2162,8 +2162,8 @@
   </sheetPr>
   <dimension ref="B1:T23"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2175,73 +2175,73 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
+      <c r="B3" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="Q6" s="37" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="Q6" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="I8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
       <c r="T8" s="31">
         <v>5</v>
       </c>
@@ -2250,299 +2250,310 @@
       <c r="B9" s="32">
         <v>1</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="I9" s="35"/>
-      <c r="Q9" s="42" t="s">
+      <c r="Q9" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
       <c r="T9" s="31" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="32">
         <v>2</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="47"/>
-      <c r="Q10" s="42" t="s">
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
+      <c r="Q10" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="42" t="s">
+      <c r="R10" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="42"/>
+      <c r="S10" s="56"/>
       <c r="T10" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="32">
         <v>3</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="32">
         <v>4</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="32">
         <v>5</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="50"/>
-      <c r="Q13" s="37" t="s">
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="Q13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="32">
         <v>6</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="32">
         <v>7</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="50"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="52"/>
       <c r="Q15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="54" t="s">
+      <c r="R15" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="32">
         <v>8</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="50"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
       <c r="Q16" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
+      <c r="R16" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="32">
         <v>9</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="50"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
       <c r="Q17" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
+      <c r="R17" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="32">
         <v>10</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="50"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
       <c r="Q18" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="R18" s="40" t="s">
+      <c r="R18" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="Q19" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="R19" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I19" s="48"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="50"/>
-      <c r="Q19" s="32" t="s">
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
+      <c r="Q20" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="R19" s="40" t="s">
+      <c r="R20" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I20" s="48"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="50"/>
-      <c r="Q20" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="R20" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="48"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="52"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I22" s="48"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="52"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="B3:K3"/>
@@ -2559,17 +2570,6 @@
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
     <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2614,163 +2614,163 @@
     <row r="1" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="62" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
     </row>
     <row r="7" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="61"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="58" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="59" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="60" t="s">
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
     </row>
     <row r="8" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="61"/>
-      <c r="C8" s="62" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="F8" s="73"/>
+      <c r="G8" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="57" t="s">
+      <c r="H8" s="69"/>
+      <c r="I8" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57" t="s">
+      <c r="J8" s="69"/>
+      <c r="K8" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57" t="s">
+      <c r="L8" s="69"/>
+      <c r="M8" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="N8" s="57"/>
-      <c r="O8" s="59" t="s">
+      <c r="N8" s="69"/>
+      <c r="O8" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="59" t="s">
+      <c r="P8" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="59" t="s">
+      <c r="Q8" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="R8" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8" s="60">
+      <c r="R8" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" s="66">
         <v>0</v>
       </c>
-      <c r="T8" s="60">
+      <c r="T8" s="66">
         <v>1</v>
       </c>
-      <c r="U8" s="108">
+      <c r="U8" s="70">
         <v>2</v>
       </c>
-      <c r="V8" s="60" t="s">
+      <c r="V8" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="60" t="s">
+      <c r="W8" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="60" t="s">
+      <c r="X8" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="60" t="s">
+      <c r="Y8" s="66" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="61"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="58"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="11" t="s">
         <v>23</v>
       </c>
@@ -2795,66 +2795,66 @@
       <c r="N9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
     </row>
     <row r="10" spans="2:25" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="E10" s="13">
         <v>13</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S10" s="17"/>
       <c r="T10" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
       <c r="W10" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
@@ -2863,24 +2863,24 @@
       <c r="B11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="110" t="s">
-        <v>106</v>
+      <c r="C11" s="37" t="s">
+        <v>105</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
@@ -2889,7 +2889,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
@@ -2903,34 +2903,34 @@
     </row>
     <row r="12" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="38">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="111">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="G12" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
@@ -2945,106 +2945,106 @@
     </row>
     <row r="13" spans="2:25" ht="109.2" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="13">
         <v>13</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
     </row>
     <row r="14" spans="2:25" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R14" s="16"/>
       <c r="S14" s="17"/>
       <c r="T14" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
@@ -3083,6 +3083,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E1:H1"/>
@@ -3099,18 +3111,6 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="S7:Y7"/>
     <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="O7:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3124,7 +3124,7 @@
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -3145,65 +3145,65 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="91" t="s">
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="92"/>
+      <c r="L4" s="76"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="90"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="94"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="79"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3215,22 +3215,22 @@
       <c r="B6" s="19">
         <v>9</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="85" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" s="102"/>
+      <c r="J6" s="92"/>
       <c r="K6" s="13">
         <v>13</v>
       </c>
@@ -3242,20 +3242,20 @@
       <c r="B7" s="19">
         <v>10</v>
       </c>
-      <c r="C7" s="95"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="92"/>
+      <c r="E7" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="76"/>
       <c r="K7" s="13">
         <v>0</v>
       </c>
@@ -3267,20 +3267,20 @@
       <c r="B8" s="19">
         <v>11</v>
       </c>
-      <c r="C8" s="95"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="92"/>
+        <v>115</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="76"/>
       <c r="K8" s="13">
         <v>0</v>
       </c>
@@ -3292,20 +3292,20 @@
       <c r="B9" s="19">
         <v>12</v>
       </c>
-      <c r="C9" s="95"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="92"/>
+        <v>107</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="76"/>
       <c r="K9" s="13">
         <v>13</v>
       </c>
@@ -3317,20 +3317,20 @@
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="96"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="94"/>
+        <v>110</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="79"/>
       <c r="K10" s="13">
         <v>0</v>
       </c>
@@ -3358,83 +3358,83 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66" t="s">
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="64" t="s">
+      <c r="G13" s="99"/>
+      <c r="H13" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="86" t="s">
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="81"/>
     </row>
     <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="71" t="s">
+      <c r="H14" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="73" t="s">
+      <c r="I14" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="73" t="s">
+      <c r="J14" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="75" t="s">
+      <c r="K14" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="83" t="s">
+      <c r="L14" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="85" t="s">
+      <c r="M14" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="N14" s="69" t="s">
+      <c r="N14" s="87" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="78"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="70"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="101"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="24">
@@ -3477,11 +3477,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
@@ -3498,22 +3509,11 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3521,6 +3521,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3664,12 +3670,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3680,6 +3680,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{741A764F-DFF5-4AE4-B0E7-77BD148FABB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3697,15 +3706,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
   <ds:schemaRefs>
